--- a/체험점포_마포_신사업창업사관학교/포장용기.xlsx
+++ b/체험점포_마포_신사업창업사관학교/포장용기.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.102.76.43786"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>포장용기</t>
   </si>
@@ -113,6 +113,27 @@
   </si>
   <si>
     <t>커피 린넨</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>일회용 봉투 (흰색)</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/kkaji/products/4887493877</t>
+  </si>
+  <si>
+    <t>150X90X260</t>
+  </si>
+  <si>
+    <t>일회용 봉투(크레프트)</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/unapack/products/5519431077?NaPm=ct%3Dko6ldoaw%7Cci%3D0zO0000r5STu5CXcE13i%7Ctr%3Dpla%7Chk%3D1c1870e946ce88e231fc173367c2572b350c0304</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/egt369/products/4948539728</t>
   </si>
 </sst>
 </file>
@@ -1016,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:G28"/>
+  <dimension ref="B5:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A19" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1212,8 +1233,71 @@
       <c r="E28" s="0">
         <v>1500</v>
       </c>
+      <c r="F28" s="0">
+        <v>1500</v>
+      </c>
       <c r="G28" s="0" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="0">
+        <v>1000</v>
+      </c>
+      <c r="E31" s="0">
+        <v>43700</v>
+      </c>
+      <c r="F31" s="0">
+        <v>43.7</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="0">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="0">
+        <v>34500</v>
+      </c>
+      <c r="F32" s="0">
+        <v>34.5</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="0">
+        <v>100</v>
+      </c>
+      <c r="E33" s="0">
+        <v>2600</v>
+      </c>
+      <c r="F33" s="0">
+        <v>26</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/체험점포_마포_신사업창업사관학교/포장용기.xlsx
+++ b/체험점포_마포_신사업창업사관학교/포장용기.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.102.76.43786"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="540" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="샐러드" sheetId="1" r:id="rId1"/>
+    <sheet name="커피" sheetId="2" r:id="rId2"/>
+    <sheet name="공통" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>포장용기</t>
   </si>
@@ -134,14 +134,103 @@
   </si>
   <si>
     <t>https://smartstore.naver.com/egt369/products/4948539728</t>
+  </si>
+  <si>
+    <t>샐러드포장용기</t>
+  </si>
+  <si>
+    <t>샐러드 포장용기</t>
+  </si>
+  <si>
+    <t>커피 포장용기</t>
+  </si>
+  <si>
+    <t>공통 포장용기</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/tissuedori/products/592537074?NaPm=ct%3Dko84zkz4%7Cci%3Dca599e5b6c9993b9a9a65c7386989b3e508d57ce%7Ctr%3Dslsl%7Csn%3D163191%7Chk%3D5c7b46bd9143d109c06a62f0b80bf380ab95cb55</t>
+  </si>
+  <si>
+    <t>190x210</t>
+  </si>
+  <si>
+    <t>냅킨</t>
+  </si>
+  <si>
+    <t>아이스컵</t>
+  </si>
+  <si>
+    <t>일회용 컵</t>
+  </si>
+  <si>
+    <t>12oz</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/moderncoffee/products/2769981893?NaPm=ct%3Dko85bh7s%7Cci%3Dc028f92cc2e56cb51d99d4ddb0722339fca47712%7Ctr%3Dslsl%7Csn%3D343530%7Chk%3D3587067baa66be0d13566bf701b435b856686876</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/negozone01/products/335277259?NaPm=ct%3Dko85o608%7Cci%3D51b04e2318fec26d040a1f22bb50195612e10892%7Ctr%3Dslsl%7Csn%3D309541%7Chk%3D58baeea07354298bbf276e2c584a502028b142a3</t>
+  </si>
+  <si>
+    <t>니트릴장갑</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/retrobjet/products/5039189732</t>
+  </si>
+  <si>
+    <t>세라믹 접시</t>
+  </si>
+  <si>
+    <t>접시</t>
+  </si>
+  <si>
+    <t>215X3.5, 4개</t>
+  </si>
+  <si>
+    <t>215X3.5</t>
+  </si>
+  <si>
+    <t>https://ohou.se/productions/410331/selling</t>
+  </si>
+  <si>
+    <t>https://ohou.se/productions/438851/selling</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/diaadia/products/4577673931?</t>
+  </si>
+  <si>
+    <t>포크</t>
+  </si>
+  <si>
+    <t>카페포크 수저</t>
+  </si>
+  <si>
+    <t>118X35</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/naezip/products/5050736540?NaPm=ct%3Dko86g4y8%7Cci%3Dde8af50b3dd1d36a53b8aaa2f8b33a81f7eeafc1%7Ctr%3Dslsl%7Csn%3D336707%7Chk%3D0eec88724edaf35304f8b128e6dbc2f5cdb7f393</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>포크&amp;숟가락</t>
+  </si>
+  <si>
+    <t>135X35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="20">
+  <numFmts count="1">
+    <numFmt numFmtId="64" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -251,6 +340,11 @@
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
       <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -715,8 +809,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1037,21 +1143,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:G33"/>
+  <dimension ref="B1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
     <col min="3" max="3" width="18.87999916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="4" width="10.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:7">
-      <c r="C5" s="0" t="s">
-        <v>0</v>
-      </c>
+    <row r="5" spans="2:7" ht="33.750000" customHeight="1">
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="0" t="s">
@@ -1063,10 +1176,10 @@
       <c r="D6" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="0" t="s">
@@ -1083,7 +1196,7 @@
       <c r="D7" s="0">
         <v>100</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7" s="4">
         <v>286</v>
       </c>
       <c r="G7" s="0" t="s">
@@ -1100,7 +1213,7 @@
       <c r="D8" s="0">
         <v>100</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8" s="4">
         <v>204</v>
       </c>
       <c r="G8" s="0" t="s">
@@ -1117,7 +1230,7 @@
       <c r="D11" s="0">
         <v>400</v>
       </c>
-      <c r="F11" s="0">
+      <c r="F11" s="4">
         <v>18.75</v>
       </c>
       <c r="G11" s="0" t="s">
@@ -1134,7 +1247,7 @@
       <c r="D12" s="0">
         <v>3000</v>
       </c>
-      <c r="F12" s="0">
+      <c r="F12" s="4">
         <v>16.66</v>
       </c>
       <c r="G12" s="0" t="s">
@@ -1151,7 +1264,7 @@
       <c r="D15" s="0">
         <v>41900</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15" s="4">
         <v>20.95</v>
       </c>
       <c r="G15" s="0" t="s">
@@ -1168,7 +1281,7 @@
       <c r="D16" s="0">
         <v>35000</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16" s="4">
         <v>17.5</v>
       </c>
       <c r="G16" s="0" t="s">
@@ -1182,10 +1295,10 @@
       <c r="D19" s="0">
         <v>1000</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19" s="4">
         <v>14700</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19" s="4">
         <v>14.7</v>
       </c>
       <c r="G19" s="0" t="s">
@@ -1199,10 +1312,10 @@
       <c r="D22" s="0">
         <v>100</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22" s="4">
         <v>11700</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22" s="4">
         <v>11.7</v>
       </c>
       <c r="G22" s="0" t="s">
@@ -1211,96 +1324,68 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="D25" s="0">
-        <v>1</v>
-      </c>
-      <c r="E25" s="0">
-        <v>11500</v>
+        <v>1000</v>
+      </c>
+      <c r="E25" s="4">
+        <v>43700</v>
+      </c>
+      <c r="F25" s="4">
+        <v>43.7</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="0">
-        <v>1</v>
-      </c>
-      <c r="E28" s="0">
-        <v>1500</v>
-      </c>
-      <c r="F28" s="0">
-        <v>1500</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="0">
+      <c r="D26" s="0">
         <v>1000</v>
       </c>
-      <c r="E31" s="0">
-        <v>43700</v>
-      </c>
-      <c r="F31" s="0">
-        <v>43.7</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="0" t="s">
+      <c r="E26" s="4">
+        <v>34500</v>
+      </c>
+      <c r="F26" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C27" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="0">
-        <v>1000</v>
-      </c>
-      <c r="E32" s="0">
-        <v>34500</v>
-      </c>
-      <c r="F32" s="0">
-        <v>34.5</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="0">
+      <c r="D27" s="0">
         <v>100</v>
       </c>
-      <c r="E33" s="0">
+      <c r="E27" s="4">
         <v>2600</v>
       </c>
-      <c r="F33" s="0">
+      <c r="F27" s="4">
         <v>26</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G27" s="0" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:G5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1309,14 +1394,91 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A8" sqref="A8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="6" style="4" width="9.38000011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:7" ht="20.250000">
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="0">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1500</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1500</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="0">
+        <v>100</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4000</v>
+      </c>
+      <c r="F8" s="4">
+        <v>40</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:G4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1325,14 +1487,172 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="12.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="4" width="10.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:7" ht="20.250000">
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="0">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="4">
+        <v>14700</v>
+      </c>
+      <c r="F6" s="4">
+        <v>14.7</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="0">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="4">
+        <v>8400</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="0">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>11500</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="0">
+        <v>100</v>
+      </c>
+      <c r="E12" s="4">
+        <v>11500</v>
+      </c>
+      <c r="F12" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="0">
+        <v>4</v>
+      </c>
+      <c r="E14" s="4">
+        <v>17900</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="G15" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="G16" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="0">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3500</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:G4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/체험점포_마포_신사업창업사관학교/포장용기.xlsx
+++ b/체험점포_마포_신사업창업사관학교/포장용기.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.102.76.43786"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.102.66.42778"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="540" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -251,6 +251,12 @@
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
       <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="10"/>
     </font>
   </fonts>
   <fills count="33">
@@ -715,8 +721,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1039,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B5:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="A4" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1103,7 +1112,7 @@
       <c r="F8" s="0">
         <v>204</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1296,12 +1305,16 @@
       <c r="F33" s="0">
         <v>26</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" s="1" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="G8"/>
+    <hyperlink r:id="rId2" ref="G33"/>
+  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/체험점포_마포_신사업창업사관학교/포장용기.xlsx
+++ b/체험점포_마포_신사업창업사관학교/포장용기.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.102.66.42778"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.102.76.43786"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="540" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="540" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="샐러드" sheetId="1" r:id="rId1"/>
+    <sheet name="커피" sheetId="2" r:id="rId2"/>
+    <sheet name="공통" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>포장용기</t>
   </si>
@@ -134,13 +134,102 @@
   </si>
   <si>
     <t>https://smartstore.naver.com/egt369/products/4948539728</t>
+  </si>
+  <si>
+    <t>샐러드포장용기</t>
+  </si>
+  <si>
+    <t>샐러드 포장용기</t>
+  </si>
+  <si>
+    <t>커피 포장용기</t>
+  </si>
+  <si>
+    <t>공통 포장용기</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/tissuedori/products/592537074?NaPm=ct%3Dko84zkz4%7Cci%3Dca599e5b6c9993b9a9a65c7386989b3e508d57ce%7Ctr%3Dslsl%7Csn%3D163191%7Chk%3D5c7b46bd9143d109c06a62f0b80bf380ab95cb55</t>
+  </si>
+  <si>
+    <t>190x210</t>
+  </si>
+  <si>
+    <t>냅킨</t>
+  </si>
+  <si>
+    <t>아이스컵</t>
+  </si>
+  <si>
+    <t>일회용 컵</t>
+  </si>
+  <si>
+    <t>12oz</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/moderncoffee/products/2769981893?NaPm=ct%3Dko85bh7s%7Cci%3Dc028f92cc2e56cb51d99d4ddb0722339fca47712%7Ctr%3Dslsl%7Csn%3D343530%7Chk%3D3587067baa66be0d13566bf701b435b856686876</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/negozone01/products/335277259?NaPm=ct%3Dko85o608%7Cci%3D51b04e2318fec26d040a1f22bb50195612e10892%7Ctr%3Dslsl%7Csn%3D309541%7Chk%3D58baeea07354298bbf276e2c584a502028b142a3</t>
+  </si>
+  <si>
+    <t>니트릴장갑</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/retrobjet/products/5039189732</t>
+  </si>
+  <si>
+    <t>세라믹 접시</t>
+  </si>
+  <si>
+    <t>접시</t>
+  </si>
+  <si>
+    <t>215X3.5, 4개</t>
+  </si>
+  <si>
+    <t>215X3.5</t>
+  </si>
+  <si>
+    <t>https://ohou.se/productions/410331/selling</t>
+  </si>
+  <si>
+    <t>https://ohou.se/productions/438851/selling</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/diaadia/products/4577673931?</t>
+  </si>
+  <si>
+    <t>포크</t>
+  </si>
+  <si>
+    <t>카페포크 수저</t>
+  </si>
+  <si>
+    <t>118X35</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/naezip/products/5050736540?NaPm=ct%3Dko86g4y8%7Cci%3Dde8af50b3dd1d36a53b8aaa2f8b33a81f7eeafc1%7Ctr%3Dslsl%7Csn%3D336707%7Chk%3D0eec88724edaf35304f8b128e6dbc2f5cdb7f393</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>포크&amp;숟가락</t>
+  </si>
+  <si>
+    <t>135X35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="64" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
   <fonts count="21">
     <font>
       <sz val="11.0"/>
@@ -253,10 +342,9 @@
       <color rgb="FF7F7F7F"/>
     </font>
     <font>
-      <u/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="10"/>
+      <sz val="14.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -721,11 +809,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1046,21 +1143,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:G33"/>
+  <dimension ref="B1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
     <col min="3" max="3" width="18.87999916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="4" width="10.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:7">
-      <c r="C5" s="0" t="s">
-        <v>0</v>
-      </c>
+    <row r="5" spans="2:7" ht="33.750000" customHeight="1">
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="0" t="s">
@@ -1072,10 +1176,10 @@
       <c r="D6" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="0" t="s">
@@ -1092,7 +1196,7 @@
       <c r="D7" s="0">
         <v>100</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7" s="4">
         <v>286</v>
       </c>
       <c r="G7" s="0" t="s">
@@ -1109,10 +1213,10 @@
       <c r="D8" s="0">
         <v>100</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8" s="4">
         <v>204</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1126,7 +1230,7 @@
       <c r="D11" s="0">
         <v>400</v>
       </c>
-      <c r="F11" s="0">
+      <c r="F11" s="4">
         <v>18.75</v>
       </c>
       <c r="G11" s="0" t="s">
@@ -1143,7 +1247,7 @@
       <c r="D12" s="0">
         <v>3000</v>
       </c>
-      <c r="F12" s="0">
+      <c r="F12" s="4">
         <v>16.66</v>
       </c>
       <c r="G12" s="0" t="s">
@@ -1160,7 +1264,7 @@
       <c r="D15" s="0">
         <v>41900</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15" s="4">
         <v>20.95</v>
       </c>
       <c r="G15" s="0" t="s">
@@ -1177,7 +1281,7 @@
       <c r="D16" s="0">
         <v>35000</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16" s="4">
         <v>17.5</v>
       </c>
       <c r="G16" s="0" t="s">
@@ -1191,10 +1295,10 @@
       <c r="D19" s="0">
         <v>1000</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19" s="4">
         <v>14700</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19" s="4">
         <v>14.7</v>
       </c>
       <c r="G19" s="0" t="s">
@@ -1208,10 +1312,10 @@
       <c r="D22" s="0">
         <v>100</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22" s="4">
         <v>11700</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22" s="4">
         <v>11.7</v>
       </c>
       <c r="G22" s="0" t="s">
@@ -1220,101 +1324,69 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="D25" s="0">
-        <v>1</v>
-      </c>
-      <c r="E25" s="0">
-        <v>11500</v>
+        <v>1000</v>
+      </c>
+      <c r="E25" s="4">
+        <v>43700</v>
+      </c>
+      <c r="F25" s="4">
+        <v>43.7</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="0">
-        <v>1</v>
-      </c>
-      <c r="E28" s="0">
-        <v>1500</v>
-      </c>
-      <c r="F28" s="0">
-        <v>1500</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="0">
+      <c r="D26" s="0">
         <v>1000</v>
       </c>
-      <c r="E31" s="0">
-        <v>43700</v>
-      </c>
-      <c r="F31" s="0">
-        <v>43.7</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="0" t="s">
+      <c r="E26" s="4">
+        <v>34500</v>
+      </c>
+      <c r="F26" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C27" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="0">
-        <v>1000</v>
-      </c>
-      <c r="E32" s="0">
-        <v>34500</v>
-      </c>
-      <c r="F32" s="0">
-        <v>34.5</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="0">
+      <c r="D27" s="0">
         <v>100</v>
       </c>
-      <c r="E33" s="0">
+      <c r="E27" s="4">
         <v>2600</v>
       </c>
-      <c r="F33" s="0">
+      <c r="F27" s="4">
         <v>26</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G27" s="0" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:G5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="G8"/>
-    <hyperlink r:id="rId2" ref="G33"/>
-  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1322,14 +1394,91 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A8" sqref="A8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="6" style="4" width="9.38000011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:7" ht="20.250000">
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="0">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1500</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1500</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="0">
+        <v>100</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4000</v>
+      </c>
+      <c r="F8" s="4">
+        <v>40</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:G4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1338,14 +1487,172 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="12.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="4" width="10.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:7" ht="20.250000">
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="0">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="4">
+        <v>14700</v>
+      </c>
+      <c r="F6" s="4">
+        <v>14.7</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="0">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="4">
+        <v>8400</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="0">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>11500</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="0">
+        <v>100</v>
+      </c>
+      <c r="E12" s="4">
+        <v>11500</v>
+      </c>
+      <c r="F12" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="0">
+        <v>4</v>
+      </c>
+      <c r="E14" s="4">
+        <v>17900</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="G15" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="G16" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="0">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3500</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:G4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/체험점포_마포_신사업창업사관학교/포장용기.xlsx
+++ b/체험점포_마포_신사업창업사관학교/포장용기.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.102.76.43786"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.102.66.42778"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="540" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="샐러드" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>포장용기</t>
   </si>
@@ -221,6 +221,30 @@
   </si>
   <si>
     <t>135X35</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/wohnen/products/4748225850?NaPm=ct%3Dkob5imiw%7Cci%3D62b77ef1d806613b6765bc6a838606f8bc3dbc52%7Ctr%3Dslct%7Csn%3D654459%7Chk%3Dbbdc41b99b1417cbd0b98db0c7e5b5a2570b36d9</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/ceomarket/products/4867616059?NaPm=ct%3Dkob8b31c%7Cci%3D4eca763af7577025f7f75221334899f7530c05eb%7Ctr%3Dslsl%7Csn%3D540544%7Chk%3D17e48c04ea4de790e3941fcd621ffab3546bf41d</t>
+  </si>
+  <si>
+    <t>http://shopping.interpark.com/product/productInfo.do?prdNo=5970337629&amp;dispNo=016001&amp;bizCd=P01397&amp;NaPm=ct%3Dkob8gmvs%7Cci%3De26138a26839ee261e9ebf46f6695fc60bfa6f86%7Ctr%3Dslsl%7Csn%3D3%7Chk%3D3e5315968bc02cf2a740d6e0d671cc8219fa68d9&amp;utm_medium=affiliate&amp;utm_source=naver&amp;utm_campaign=shop_p11714_p01397&amp;utm_content=price_comparison</t>
+  </si>
+  <si>
+    <t>https://www.megacoffee.co.kr/order/cart.php</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/coffeebik/products/4360689667?NaPm=ct%3Dkobe4zd4%7Cci%3D06da5c82219b5bfa6474835383228726b77731a3%7Ctr%3Dslsl%7Csn%3D559783%7Chk%3Db5f6baee1c1fec1c3cebfbbe2c5207f0d0fb67f6</t>
+  </si>
+  <si>
+    <t>스트로우</t>
+  </si>
+  <si>
+    <t>메가커피</t>
+  </si>
+  <si>
+    <t xml:space="preserve">컵, </t>
   </si>
 </sst>
 </file>
@@ -1394,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1473,6 +1497,34 @@
       </c>
       <c r="G8" s="0" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="0">
+        <v>21</v>
+      </c>
+      <c r="D10" s="0">
+        <v>10000</v>
+      </c>
+      <c r="E10" s="4">
+        <v>54000</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1487,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1500,7 +1552,7 @@
     <col min="6" max="6" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" ht="20.250000">
+    <row r="4" spans="1:8" ht="20.250000">
       <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
@@ -1510,7 +1562,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="B5" s="0" t="s">
         <v>1</v>
       </c>
@@ -1530,7 +1582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="B6" s="0" t="s">
         <v>23</v>
       </c>
@@ -1550,7 +1602,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="B8" s="0" t="s">
         <v>45</v>
       </c>
@@ -1563,8 +1615,14 @@
       <c r="F8" s="4">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G8" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="B10" s="0" t="s">
         <v>28</v>
       </c>
@@ -1575,10 +1633,10 @@
         <v>11500</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="B12" s="0" t="s">
         <v>26</v>
       </c>
@@ -1598,7 +1656,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="0" t="s">
         <v>55</v>
       </c>
@@ -1614,17 +1672,16 @@
       <c r="E14" s="4">
         <v>17900</v>
       </c>
-      <c r="F14" s="4"/>
       <c r="G14" s="0" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="G15" s="0" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="G16" s="0" t="s">
         <v>59</v>
       </c>

--- a/체험점포_마포_신사업창업사관학교/포장용기.xlsx
+++ b/체험점포_마포_신사업창업사관학교/포장용기.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.102.66.42778"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.102.76.43786"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="530" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="샐러드" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>포장용기</t>
   </si>
@@ -245,6 +245,45 @@
   </si>
   <si>
     <t xml:space="preserve">컵, </t>
+  </si>
+  <si>
+    <t>180X110X350</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/mihinsangsa/products/2367744192?NaPm=ct%3Dkocbty14%7Cci%3Db7fb6e94050a6609d280ec08f5fd9d4a002ced6f%7Ctr%3Dslsl%7Csn%3D308115%7Chk%3D449265ded89d0abc069dacc5f965d6ab7946ce6c</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/unapack/products/5519431077?NaPm=ct%3Dkocc2spc%7Cci%3Da0044cdbd3f21f5da2886a10bf0633c8c79c0cad%7Ctr%3Dslsl%7Csn%3D379095%7Chk%3Da124a1dac4ffabe441271d24365d4c728f25f6fc</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/tnsmall/products/4975473073?NaPm=ct%3Dkoccj9ao%7Cci%3D987fd2372fb1a200ec2d04dc1c9d6cf16501fee3%7Ctr%3Dslsl%7Csn%3D197444%7Chk%3D1acc2adb6881bec2cdf1dec8c55d3eeb8cc78a9a</t>
+  </si>
+  <si>
+    <t>크라프트  오트밀 샌드위치</t>
+  </si>
+  <si>
+    <t>W60 X L90 X H45</t>
+  </si>
+  <si>
+    <t>W160 X L90 X H45</t>
+  </si>
+  <si>
+    <t>W137 X L110 X H90</t>
+  </si>
+  <si>
+    <t>크라프트 원형 용기</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/nuricup/products/4745013444?NaPm=ct%3Dkocdnn00%7Cci%3D5507247f3c7e997298e0349d9f432617c7ab2a22%7Ctr%3Dslsl%7Csn%3D435128%7Chk%3Dacaeab61cec574343ccc06fc3bea47d70e8631ba</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/everyplus/products/2500761116?NaPm=ct%3Dkocdys8g%7Cci%3Dc4ccbcee8e6960a9ddd720e69af85fe457214585%7Ctr%3Dslsl%7Csn%3D456646%7Chk%3D56cdf53225a65a10e6140b5ee075f32afbbc1644</t>
+  </si>
+  <si>
+    <t>크라프트 손잡이 백</t>
+  </si>
+  <si>
+    <t>180X90X280</t>
   </si>
 </sst>
 </file>
@@ -1167,10 +1206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G27"/>
+  <dimension ref="B1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1212,16 +1251,19 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="D7" s="0">
         <v>100</v>
       </c>
+      <c r="E7" s="4">
+        <v>25000</v>
+      </c>
       <c r="F7" s="4">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>9</v>
@@ -1229,19 +1271,22 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="D8" s="0">
-        <v>100</v>
+        <v>500</v>
+      </c>
+      <c r="E8" s="4">
+        <v>47500</v>
       </c>
       <c r="F8" s="4">
-        <v>204</v>
+        <v>95</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -1279,21 +1324,7 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="0">
-        <v>155</v>
-      </c>
-      <c r="D15" s="0">
-        <v>41900</v>
-      </c>
-      <c r="F15" s="4">
-        <v>20.95</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>20</v>
-      </c>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="0" t="s">
@@ -1303,30 +1334,16 @@
         <v>155</v>
       </c>
       <c r="D16" s="0">
-        <v>35000</v>
+        <v>2000</v>
+      </c>
+      <c r="E16" s="4">
+        <v>39500</v>
       </c>
       <c r="F16" s="4">
-        <v>17.5</v>
+        <v>19.75</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="0">
-        <v>1000</v>
-      </c>
-      <c r="E19" s="4">
-        <v>14700</v>
-      </c>
-      <c r="F19" s="4">
-        <v>14.7</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -1371,7 +1388,7 @@
         <v>36</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="D26" s="0">
         <v>1000</v>
@@ -1383,7 +1400,7 @@
         <v>34.5</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="2:7">
@@ -1391,19 +1408,39 @@
         <v>36</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="D27" s="0">
         <v>100</v>
       </c>
       <c r="E27" s="4">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="F27" s="4">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="0">
+        <v>100</v>
+      </c>
+      <c r="E28" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F28" s="4">
+        <v>100</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1420,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1539,10 +1576,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1706,6 +1743,23 @@
         <v>60</v>
       </c>
     </row>
+    <row r="19" spans="1:7">
+      <c r="B19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="0">
+        <v>1000</v>
+      </c>
+      <c r="E19" s="4">
+        <v>14700</v>
+      </c>
+      <c r="F19" s="4">
+        <v>14.7</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B4:G4"/>

--- a/체험점포_마포_신사업창업사관학교/포장용기.xlsx
+++ b/체험점포_마포_신사업창업사관학교/포장용기.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.102.76.43786"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="520" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="510" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="샐러드" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>포장용기</t>
   </si>
@@ -284,6 +284,24 @@
   </si>
   <si>
     <t>180X90X280</t>
+  </si>
+  <si>
+    <t>https://www.elgift.kr/goods/goods_view.php?goodsNo=1000001228&amp;inflow=naver&amp;NaPm=ct%3Dkoi8rgd4%7Cci%3D84149933ca59bdd4012b58101a486982c2acc0e3%7Ctr%3Dslsl%7Csn%3D482746%7Chk%3D8b22c8031ae71b9e7ae2530c17781d00f27985df</t>
+  </si>
+  <si>
+    <t>일회용 봉투(손잡이)</t>
+  </si>
+  <si>
+    <t>일회용 봉투(손잡이_링고리봉투)</t>
+  </si>
+  <si>
+    <t>300X160X400</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/usepack/products/2382220102</t>
+  </si>
+  <si>
+    <t>크라프트_펄프용기</t>
   </si>
 </sst>
 </file>
@@ -293,7 +311,7 @@
   <numFmts count="1">
     <numFmt numFmtId="64" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -408,6 +426,12 @@
       <sz val="14.0"/>
       <name val="맑은 고딕"/>
       <color theme="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="10"/>
     </font>
   </fonts>
   <fills count="33">
@@ -872,7 +896,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -886,6 +910,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="64" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1206,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G28"/>
+  <dimension ref="B1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1289,6 +1316,14 @@
         <v>85</v>
       </c>
     </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
     <row r="11" spans="2:7">
       <c r="B11" s="0" t="s">
         <v>14</v>
@@ -1323,9 +1358,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
-      <c r="F15" s="4"/>
-    </row>
     <row r="16" spans="2:7">
       <c r="B16" s="0" t="s">
         <v>21</v>
@@ -1441,6 +1473,26 @@
       </c>
       <c r="G28" s="0" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="0">
+        <v>100</v>
+      </c>
+      <c r="E30" s="4">
+        <v>8600</v>
+      </c>
+      <c r="F30" s="4">
+        <v>86</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1578,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1739,7 +1791,7 @@
       <c r="E17" s="4">
         <v>3500</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1765,6 +1817,9 @@
     <mergeCell ref="B4:G4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="G17"/>
+  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
